--- a/app/userinfo/580515/verification_result.xlsx
+++ b/app/userinfo/580515/verification_result.xlsx
@@ -461,19 +461,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TESTDATA</t>
+          <t>TARGET_TABLE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TESTDATA_DIF</t>
+          <t>TARGET_TABLE2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -482,12 +482,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8889/static/userinfo/580515/TESTDATA_DIF_10311.csv</t>
+          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10065.csv</t>
         </is>
       </c>
     </row>

--- a/app/userinfo/580515/verification_result.xlsx
+++ b/app/userinfo/580515/verification_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10065.csv</t>
+          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10076.csv</t>
         </is>
       </c>
     </row>

--- a/app/userinfo/580515/verification_result.xlsx
+++ b/app/userinfo/580515/verification_result.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10076.csv</t>
+          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10075.csv</t>
         </is>
       </c>
     </row>

--- a/app/userinfo/580515/verification_result.xlsx
+++ b/app/userinfo/580515/verification_result.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TARGET_TABLE</t>
+          <t>TMP_TABLE2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10075.csv</t>
+          <t>http://127.0.0.1:8889/static/userinfo/580515/TARGET_TABLE2_10076.csv</t>
         </is>
       </c>
     </row>
